--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_13_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_13_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-187583.7561328555</v>
+        <v>-190130.8510673329</v>
       </c>
     </row>
     <row r="7">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>32.27682439587284</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>225.990585004278</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>345.5440140499572</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>53.76023182672841</v>
       </c>
       <c r="F4" t="n">
-        <v>39.45325254851071</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +896,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>232.6104938959961</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>112.1729384947009</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,13 +1060,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>161.3397664060618</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551289</v>
@@ -1102,22 +1102,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>113.4317090118139</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,13 +1133,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>14.59479991660671</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>120.5381589265369</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1151,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>80.58821765561218</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>76.84179134525213</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1531,16 +1531,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>103.1686991936193</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>100.2041656279971</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>129.009682740596</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>99.98993057842175</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012262</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892451</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2008,7 +2008,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,10 +2017,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2059,16 +2059,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>98.42683230404785</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>111.6910841413393</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>11.77415159214149</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2248,13 +2248,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>154.0370966050012</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2482,16 +2482,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>220.6346102953139</v>
+        <v>253.2918698186444</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,22 +2710,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>95.05806357631816</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>109.5557012899555</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>177.1555223271048</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,16 +3190,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>60.64713141731143</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>133.3722917337067</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>83.53432244437066</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3566,7 +3566,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>4.019807611472036</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3718,10 +3718,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>105.1162657551305</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3907,7 +3907,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T43" t="n">
-        <v>81.13054509253637</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>681.0854746196783</v>
+        <v>1283.357110060378</v>
       </c>
       <c r="C2" t="n">
-        <v>312.1229576792666</v>
+        <v>914.3945931199664</v>
       </c>
       <c r="D2" t="n">
-        <v>279.5201047541425</v>
+        <v>914.3945931199664</v>
       </c>
       <c r="E2" t="n">
-        <v>279.5201047541425</v>
+        <v>528.6063405217222</v>
       </c>
       <c r="F2" t="n">
-        <v>279.5201047541425</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800312</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800312</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872924</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>2184.059060190806</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V2" t="n">
-        <v>2184.059060190806</v>
+        <v>2022.530799662409</v>
       </c>
       <c r="W2" t="n">
-        <v>1831.290404920692</v>
+        <v>1673.49644203619</v>
       </c>
       <c r="X2" t="n">
-        <v>1457.824646659612</v>
+        <v>1673.49644203619</v>
       </c>
       <c r="Y2" t="n">
-        <v>1067.6853146838</v>
+        <v>1283.357110060378</v>
       </c>
     </row>
     <row r="3">
@@ -4404,34 +4404,34 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M3" t="n">
-        <v>956.284402521753</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1343.569531118698</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>1675.63996629486</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P3" t="n">
-        <v>2238.100841080695</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676483</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>706.8033708781536</v>
+        <v>1751.030355774172</v>
       </c>
       <c r="C4" t="n">
-        <v>537.8671879502467</v>
+        <v>1751.030355774172</v>
       </c>
       <c r="D4" t="n">
-        <v>387.750548537911</v>
+        <v>1600.913716361836</v>
       </c>
       <c r="E4" t="n">
-        <v>239.8374549555178</v>
+        <v>1546.610451890394</v>
       </c>
       <c r="F4" t="n">
-        <v>199.9856847044969</v>
+        <v>1399.720504392483</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>1231.734039700762</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800312</v>
+        <v>1082.995141564268</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800312</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>1002.60916787878</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>2508.006390496682</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>2459.755921915737</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>2263.127174075599</v>
       </c>
       <c r="T4" t="n">
-        <v>1337.233965749941</v>
+        <v>2040.148693270334</v>
       </c>
       <c r="U4" t="n">
-        <v>1337.233965749941</v>
+        <v>1751.030355774172</v>
       </c>
       <c r="V4" t="n">
-        <v>1337.233965749941</v>
+        <v>1751.030355774172</v>
       </c>
       <c r="W4" t="n">
-        <v>1337.233965749941</v>
+        <v>1751.030355774172</v>
       </c>
       <c r="X4" t="n">
-        <v>1109.244414851923</v>
+        <v>1751.030355774172</v>
       </c>
       <c r="Y4" t="n">
-        <v>888.4518357083933</v>
+        <v>1751.030355774172</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1909.224801182914</v>
+        <v>1445.96558289315</v>
       </c>
       <c r="C5" t="n">
-        <v>1540.262284242502</v>
+        <v>1445.96558289315</v>
       </c>
       <c r="D5" t="n">
-        <v>1181.996585635751</v>
+        <v>1087.699884286399</v>
       </c>
       <c r="E5" t="n">
-        <v>1181.996585635751</v>
+        <v>701.9116316881548</v>
       </c>
       <c r="F5" t="n">
-        <v>771.0106808461439</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
         <v>51.24678656800311</v>
@@ -4565,13 +4565,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4595,22 +4595,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2240.287688526484</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>1909.224801182914</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W5" t="n">
-        <v>1909.224801182914</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="X5" t="n">
-        <v>1909.224801182914</v>
+        <v>1836.104914868961</v>
       </c>
       <c r="Y5" t="n">
-        <v>1909.224801182914</v>
+        <v>1445.96558289315</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4620,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
         <v>607.9167021542605</v>
@@ -4635,10 +4635,10 @@
         <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4432786182521</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
@@ -4647,22 +4647,22 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>684.9695361605188</v>
+        <v>590.2049751143496</v>
       </c>
       <c r="L6" t="n">
-        <v>979.6730931919905</v>
+        <v>884.9085321458213</v>
       </c>
       <c r="M6" t="n">
-        <v>1342.93511215121</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N6" t="n">
-        <v>1730.220240748155</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O6" t="n">
-        <v>2062.290675924317</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P6" t="n">
-        <v>2309.473409756614</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q6" t="n">
         <v>2538.001278676482</v>
@@ -4683,7 +4683,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
         <v>1307.279776881661</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>829.9210616433568</v>
+        <v>665.9284545426499</v>
       </c>
       <c r="C7" t="n">
-        <v>660.9848787154499</v>
+        <v>496.992271614743</v>
       </c>
       <c r="D7" t="n">
-        <v>510.8682393031141</v>
+        <v>346.8756322024072</v>
       </c>
       <c r="E7" t="n">
-        <v>362.955145720721</v>
+        <v>346.8756322024072</v>
       </c>
       <c r="F7" t="n">
-        <v>362.955145720721</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G7" t="n">
         <v>199.9856847044969</v>
@@ -4750,25 +4750,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U7" t="n">
-        <v>1347.327782578335</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="V7" t="n">
-        <v>1347.327782578335</v>
+        <v>962.1544032232067</v>
       </c>
       <c r="W7" t="n">
-        <v>1057.910612541374</v>
+        <v>847.5769193728896</v>
       </c>
       <c r="X7" t="n">
-        <v>829.9210616433568</v>
+        <v>847.5769193728896</v>
       </c>
       <c r="Y7" t="n">
-        <v>829.9210616433568</v>
+        <v>847.5769193728896</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2001.643962205201</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="C8" t="n">
-        <v>1632.681445264789</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052369</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883008</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539437</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.243802269323</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2388.243802269323</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>2388.243802269323</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4872,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>331.5406302391191</v>
+        <v>626.9042569062804</v>
       </c>
       <c r="C10" t="n">
-        <v>331.5406302391191</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="D10" t="n">
-        <v>331.5406302391191</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="E10" t="n">
-        <v>331.5406302391191</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>1365.103556984789</v>
       </c>
       <c r="W10" t="n">
-        <v>590.8070661251691</v>
+        <v>1075.686386947828</v>
       </c>
       <c r="X10" t="n">
-        <v>513.1890950693588</v>
+        <v>847.6968360498105</v>
       </c>
       <c r="Y10" t="n">
-        <v>513.1890950693588</v>
+        <v>626.9042569062804</v>
       </c>
     </row>
     <row r="11">
@@ -5036,19 +5036,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5075,7 +5075,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
@@ -5124,22 +5124,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>198.027470314254</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
         <v>93.81666304797187</v>
@@ -5197,52 +5197,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="14">
@@ -5273,19 +5273,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
@@ -5364,16 +5364,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951538</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2252.2213777565</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1057.955258982918</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C16" t="n">
-        <v>889.0190760550113</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D16" t="n">
-        <v>738.9024366426755</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="E16" t="n">
-        <v>590.9893430602824</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F16" t="n">
-        <v>444.099395562372</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G16" t="n">
-        <v>276.903296277252</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487566</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510507</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854705</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854705</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W16" t="n">
-        <v>1688.385853854705</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X16" t="n">
-        <v>1460.396302956688</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y16" t="n">
-        <v>1239.603723813158</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="17">
@@ -5507,16 +5507,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5531,13 +5531,13 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>120.6800663848338</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>454.6048385560544</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>956.9553291057244</v>
+        <v>950.7540666811332</v>
       </c>
       <c r="C19" t="n">
-        <v>788.0191461778176</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654818</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797776</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910812</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570821</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279806</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580264</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580264</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2264.108249235168</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2044.50678425811</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1755.431557602307</v>
       </c>
       <c r="V19" t="n">
-        <v>1656.010514870942</v>
+        <v>1755.431557602307</v>
       </c>
       <c r="W19" t="n">
-        <v>1366.593344833982</v>
+        <v>1466.014387565347</v>
       </c>
       <c r="X19" t="n">
-        <v>1138.603793935964</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y19" t="n">
-        <v>1138.603793935964</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="20">
@@ -5741,58 +5741,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>577.8620388433919</v>
+        <v>866.4638174991042</v>
       </c>
       <c r="C22" t="n">
-        <v>408.925855915485</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D22" t="n">
-        <v>408.925855915485</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038357</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797759</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910811</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="T22" t="n">
-        <v>2041.469518613829</v>
+        <v>2160.315914855606</v>
       </c>
       <c r="U22" t="n">
-        <v>1752.394291958027</v>
+        <v>1871.240688199804</v>
       </c>
       <c r="V22" t="n">
-        <v>1497.70980375214</v>
+        <v>1616.556199993917</v>
       </c>
       <c r="W22" t="n">
-        <v>1208.292633715179</v>
+        <v>1327.139029956956</v>
       </c>
       <c r="X22" t="n">
-        <v>980.3030828171618</v>
+        <v>1099.149479058939</v>
       </c>
       <c r="Y22" t="n">
-        <v>759.5105036736317</v>
+        <v>878.3568999154087</v>
       </c>
     </row>
     <row r="23">
@@ -5975,22 +5975,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332386</v>
@@ -6002,13 +6002,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.0655846733346</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C25" t="n">
-        <v>411.1294017454277</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D25" t="n">
-        <v>261.0127623330919</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U25" t="n">
-        <v>1754.597837787969</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V25" t="n">
-        <v>1499.913349582082</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W25" t="n">
-        <v>1210.496179545122</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X25" t="n">
-        <v>982.5066286471044</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y25" t="n">
-        <v>761.7140495035743</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="26">
@@ -6218,58 +6218,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,40 +6473,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,16 +6534,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6595,52 +6595,52 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>806.8386896933887</v>
+        <v>917.5010142286973</v>
       </c>
       <c r="C31" t="n">
-        <v>637.9025067654818</v>
+        <v>748.5648313007904</v>
       </c>
       <c r="D31" t="n">
-        <v>637.9025067654818</v>
+        <v>748.5648313007904</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>600.6517377183973</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>453.7617902204869</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>286.5656909353668</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
@@ -6652,19 +6652,19 @@
         <v>2160.315914855604</v>
       </c>
       <c r="U31" t="n">
-        <v>1981.370942808024</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.686454602137</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W31" t="n">
-        <v>1437.269284565176</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X31" t="n">
-        <v>1209.279733667159</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y31" t="n">
-        <v>988.4871545236284</v>
+        <v>1099.149479058937</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,40 +6710,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,16 +6771,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>702.4944101284095</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>533.5582272005026</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>383.4415877881669</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2385.703354875905</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2385.703354875905</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2166.101889898846</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1877.026663243044</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1622.342175037157</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1332.925005000197</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1104.935454102179</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>884.1428749586493</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6926,31 +6926,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>718.5507239167111</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C37" t="n">
-        <v>549.6145409888043</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D37" t="n">
-        <v>549.6145409888043</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>228.5361496476756</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>228.5361496476756</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1893.082977031346</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1638.398488825459</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1348.981318788498</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1120.991767890481</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>900.1991887469509</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7166,52 +7166,52 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
         <v>3094.515198591809</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,28 +7245,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597619</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D40" t="n">
-        <v>411.9631215597619</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E40" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>265.0731740618515</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>97.87707477673149</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,13 +7421,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>718.5507239167111</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>2182.158203687148</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1893.082977031346</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1638.398488825459</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1348.981318788498</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1120.991767890481</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>900.1991887469509</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7634,40 +7634,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7801,16 +7801,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7819,19 +7819,19 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -8058,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>30.36925650589438</v>
       </c>
       <c r="Q3" t="n">
-        <v>186.4490126143858</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>168.7434581780643</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>114.3555089013359</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -22550,19 +22550,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>322.4062172248101</v>
+        <v>50.72085683024531</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22595,22 +22595,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>3.696954667455827</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>62.35543909864957</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>125.5054897610401</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,19 +23656,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>17.42427990597318</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>40.30478226780214</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,10 +23710,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23896,7 +23896,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012055</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,16 +23947,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>153.7108110197802</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>114.0185712476979</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>168.0578285897958</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24136,13 +24136,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -24175,10 +24175,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>63.36835372228705</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24370,16 +24370,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856552</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>65.54986409393024</v>
+        <v>32.89260457059976</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>84.77391660561914</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>30.73901155626839</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>109.0289520621393</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>5.728115292810259</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>32.15184655856211</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>202.6501519448735</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>136.2749052347519</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25606,10 +25606,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>147.0213775686975</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25795,7 +25795,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T43" t="n">
-        <v>136.2749052347519</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>274720.9666028986</v>
+        <v>274720.9666028985</v>
       </c>
       <c r="C2" t="n">
         <v>307890.6636991064</v>
       </c>
       <c r="D2" t="n">
-        <v>307890.6636991062</v>
+        <v>307890.6636991061</v>
       </c>
       <c r="E2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837521</v>
       </c>
       <c r="F2" t="n">
         <v>302679.9748837522</v>
@@ -26332,28 +26332,28 @@
         <v>302679.9748837521</v>
       </c>
       <c r="I2" t="n">
+        <v>302679.9748837523</v>
+      </c>
+      <c r="J2" t="n">
+        <v>302679.9748837524</v>
+      </c>
+      <c r="K2" t="n">
+        <v>302679.9748837524</v>
+      </c>
+      <c r="L2" t="n">
+        <v>302679.9748837524</v>
+      </c>
+      <c r="M2" t="n">
         <v>302679.9748837522</v>
       </c>
-      <c r="J2" t="n">
-        <v>302679.9748837521</v>
-      </c>
-      <c r="K2" t="n">
-        <v>302679.9748837523</v>
-      </c>
-      <c r="L2" t="n">
-        <v>302679.9748837523</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>302679.9748837524</v>
       </c>
-      <c r="N2" t="n">
-        <v>302679.9748837522</v>
-      </c>
       <c r="O2" t="n">
-        <v>302679.9748837521</v>
+        <v>302679.9748837524</v>
       </c>
       <c r="P2" t="n">
-        <v>307890.6636991058</v>
+        <v>307890.6636991061</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099824</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>48293.97000819077</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>85036.34761942344</v>
+        <v>85036.34761942332</v>
       </c>
       <c r="C4" t="n">
         <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309555</v>
+        <v>87914.29116309556</v>
       </c>
       <c r="E4" t="n">
         <v>8727.256391744284</v>
@@ -26430,28 +26430,28 @@
         <v>8727.256391744284</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="H4" t="n">
         <v>8727.256391744284</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="J4" t="n">
-        <v>8727.256391744337</v>
+        <v>8727.256391744257</v>
       </c>
       <c r="K4" t="n">
-        <v>8727.256391744297</v>
+        <v>8727.256391744257</v>
       </c>
       <c r="L4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744257</v>
       </c>
       <c r="M4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="N4" t="n">
-        <v>8727.256391744344</v>
+        <v>8727.256391744244</v>
       </c>
       <c r="O4" t="n">
         <v>8727.256391744282</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1018004.937032289</v>
+        <v>-1018226.068346264</v>
       </c>
       <c r="C6" t="n">
-        <v>79430.75428227856</v>
+        <v>79430.75428227879</v>
       </c>
       <c r="D6" t="n">
-        <v>-80584.70846572066</v>
+        <v>-80584.70846572073</v>
       </c>
       <c r="E6" t="n">
-        <v>-132582.2731392543</v>
+        <v>-132617.0110646903</v>
       </c>
       <c r="F6" t="n">
-        <v>192830.1886681007</v>
+        <v>192795.450742665</v>
       </c>
       <c r="G6" t="n">
-        <v>192830.1886681007</v>
+        <v>192795.4507426649</v>
       </c>
       <c r="H6" t="n">
-        <v>192830.1886681005</v>
+        <v>192795.450742665</v>
       </c>
       <c r="I6" t="n">
-        <v>192830.1886681007</v>
+        <v>192795.4507426652</v>
       </c>
       <c r="J6" t="n">
-        <v>25225.01085811833</v>
+        <v>25190.27293268265</v>
       </c>
       <c r="K6" t="n">
-        <v>192830.1886681009</v>
+        <v>192795.4507426653</v>
       </c>
       <c r="L6" t="n">
-        <v>144536.2186599101</v>
+        <v>144501.4807344745</v>
       </c>
       <c r="M6" t="n">
-        <v>107775.1607325892</v>
+        <v>107740.4228071534</v>
       </c>
       <c r="N6" t="n">
-        <v>192830.1886681008</v>
+        <v>192795.4507426653</v>
       </c>
       <c r="O6" t="n">
-        <v>192830.1886681007</v>
+        <v>192795.4507426652</v>
       </c>
       <c r="P6" t="n">
-        <v>168580.7141967209</v>
+        <v>168580.7141967212</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000389</v>
@@ -26802,28 +26802,28 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>303.9621847904376</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>185.557117768676</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,13 +27430,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>92.67373081984076</v>
       </c>
       <c r="F4" t="n">
-        <v>105.9677954744205</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,10 +27588,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27616,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>174.2655518457154</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -27667,22 +27667,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>138.8723116337611</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,13 +27780,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>4.966833638742344</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27822,22 +27822,22 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>173.0912893247771</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,13 +27853,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>340.0882417040763</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>261.3922111457249</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>171.5494256682158</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>148.867864043785</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28749,7 +28749,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>3.016490760880212e-12</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -28767,7 +28767,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -28983,7 +28983,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -30286,7 +30286,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31054,16 +31054,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31075,7 +31075,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31124,7 +31124,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31136,16 +31136,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31230,7 +31230,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31239,7 +31239,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31844,34 +31844,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>416.4300581532626</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>437.853104691376</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>153.9723775119818</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32555,13 +32555,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>399.9031616963282</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>754.0002396832324</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437244</v>
@@ -32570,10 +32570,10 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32704,7 +32704,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32783,34 +32783,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>754.0002396832324</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,34 +33014,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>461.1007071927452</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33263,16 +33263,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,16 +33500,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,31 +33725,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,34 +33962,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>461.1007071927452</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,34 +34199,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>461.1007071927452</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,34 +34436,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>461.1007071927452</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34699,19 +34699,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34720,7 +34720,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>280.0487856294267</v>
       </c>
       <c r="Q3" t="n">
-        <v>302.9297349452403</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977092</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,13 +34854,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34869,13 +34869,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>355.3309544215491</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378501</v>
@@ -35033,7 +35033,7 @@
         <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>230.8362312321904</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>24.58388860977091</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35492,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,22 +35729,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>274.2960242312443</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>27.13475084531509</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191345</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36203,13 +36203,13 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>261.348781916454</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>622.6585275998991</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>557.48457599928</v>
@@ -36218,10 +36218,10 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096363</v>
       </c>
       <c r="L22" t="n">
         <v>394.3420143191315</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>622.6585275998991</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,28 +36668,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>318.5044627483008</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,13 +36914,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,13 +37151,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,16 +37388,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,28 +37616,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>318.5044627483008</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,28 +37853,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>318.5044627483008</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,28 +38090,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>318.5044627483008</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38181,13 +38181,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
